--- a/tsp变量.xlsx
+++ b/tsp变量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\chuukann\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\chuukann\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E90942-E341-4AD9-BE81-212139F186E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D6E2C5-20F9-40E1-88D9-994DB4604166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +190,19 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -560,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -662,6 +675,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -948,13 +983,13 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="18" width="5.58203125" customWidth="1"/>
+    <col min="2" max="18" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="12" t="s">
         <v>0</v>
@@ -1005,7 +1040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1106,7 @@
       </c>
       <c r="R4" s="28"/>
     </row>
-    <row r="5" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1137,7 +1172,7 @@
       </c>
       <c r="R6" s="28"/>
     </row>
-    <row r="7" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +1201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1195,7 +1230,7 @@
       </c>
       <c r="R8" s="28"/>
     </row>
-    <row r="9" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
@@ -1224,7 +1259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1253,7 +1288,7 @@
       </c>
       <c r="R10" s="28"/>
     </row>
-    <row r="11" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1338,7 @@
       </c>
       <c r="R12" s="28"/>
     </row>
-    <row r="13" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1328,7 +1363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +1388,7 @@
       </c>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1374,7 +1409,7 @@
       <c r="Q15" s="20"/>
       <c r="R15" s="28"/>
     </row>
-    <row r="16" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
@@ -1395,7 +1430,7 @@
       <c r="Q16" s="20"/>
       <c r="R16" s="28"/>
     </row>
-    <row r="17" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
@@ -1416,7 +1451,7 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="28"/>
     </row>
-    <row r="18" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
@@ -1452,13 +1487,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="18" width="5.58203125" customWidth="1"/>
+    <col min="2" max="18" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="12" t="s">
         <v>0</v>
@@ -1509,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1579,7 @@
       <c r="Q4" s="26"/>
       <c r="R4" s="27"/>
     </row>
-    <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1577,7 +1612,7 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="28"/>
     </row>
-    <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1643,7 @@
       </c>
       <c r="R6" s="28"/>
     </row>
-    <row r="7" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1637,7 +1672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1670,7 +1705,7 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="28"/>
     </row>
-    <row r="9" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -1701,7 +1736,7 @@
       <c r="Q9" s="20"/>
       <c r="R9" s="28"/>
     </row>
-    <row r="10" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
@@ -1730,7 +1765,7 @@
       </c>
       <c r="R10" s="28"/>
     </row>
-    <row r="11" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1757,7 +1792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1788,7 +1823,7 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="28"/>
     </row>
-    <row r="13" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +1852,7 @@
       <c r="Q13" s="20"/>
       <c r="R13" s="28"/>
     </row>
-    <row r="14" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1844,7 +1879,7 @@
       </c>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
@@ -1869,7 +1904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
@@ -1898,7 +1933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1925,7 +1960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
@@ -1950,7 +1985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
@@ -1982,19 +2017,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFCC08B-3655-4170-AB74-6C18253916F3}">
-  <dimension ref="B3:R20"/>
+  <dimension ref="B3:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="18" width="5.58203125" customWidth="1"/>
+    <col min="2" max="18" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="12" t="s">
         <v>0</v>
@@ -2045,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2064,35 +2099,35 @@
       <c r="G5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="35" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="25"/>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="35" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="35" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="35" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="35" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="26"/>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -2106,38 +2141,38 @@
       <c r="F6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="36" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="36" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="36" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="36" t="s">
         <v>18</v>
       </c>
       <c r="N6" s="16"/>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="36" t="s">
         <v>20</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="39" t="s">
         <v>20</v>
       </c>
       <c r="R6" s="28"/>
     </row>
-    <row r="7" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -2150,37 +2185,37 @@
         <v>28</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="37" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="37" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="19"/>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="37" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="37" t="s">
         <v>18</v>
       </c>
       <c r="O7" s="19"/>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="37" t="s">
         <v>20</v>
       </c>
       <c r="Q7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="28" t="s">
+      <c r="R7" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2190,38 +2225,38 @@
       <c r="F8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="37" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="19"/>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="37" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="37" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="19"/>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="37" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="37" t="s">
         <v>20</v>
       </c>
       <c r="P8" s="19"/>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="41" t="s">
         <v>20</v>
       </c>
       <c r="R8" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2244,25 +2279,25 @@
       <c r="K9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="37" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="19"/>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="37" t="s">
         <v>22</v>
       </c>
       <c r="O9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="37" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="20"/>
-      <c r="R9" s="28" t="s">
+      <c r="R9" s="40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2280,28 +2315,29 @@
       <c r="J10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="37" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="37" t="s">
         <v>22</v>
       </c>
       <c r="N10" s="19"/>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="37" t="s">
         <v>24</v>
       </c>
       <c r="P10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="41" t="s">
         <v>24</v>
       </c>
       <c r="R10" s="28"/>
-    </row>
-    <row r="11" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U10" s="42"/>
+    </row>
+    <row r="11" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2318,27 +2354,27 @@
         <v>28</v>
       </c>
       <c r="K11" s="19"/>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="37" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="37" t="s">
         <v>22</v>
       </c>
       <c r="O11" s="19"/>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="37" t="s">
         <v>24</v>
       </c>
       <c r="Q11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="28" t="s">
+      <c r="R11" s="40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
@@ -2352,28 +2388,28 @@
       <c r="J12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="37" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="19"/>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="37" t="s">
         <v>22</v>
       </c>
       <c r="N12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="37" t="s">
         <v>24</v>
       </c>
       <c r="P12" s="19"/>
-      <c r="Q12" s="20" t="s">
+      <c r="Q12" s="41" t="s">
         <v>24</v>
       </c>
       <c r="R12" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
@@ -2400,15 +2436,15 @@
       <c r="O13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="Q13" s="20"/>
-      <c r="R13" s="28" t="s">
+      <c r="R13" s="40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
@@ -2430,18 +2466,18 @@
       <c r="N14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="37" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="Q14" s="41" t="s">
         <v>26</v>
       </c>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
@@ -2462,17 +2498,17 @@
         <v>28</v>
       </c>
       <c r="O15" s="19"/>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="37" t="s">
         <v>26</v>
       </c>
       <c r="Q15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R15" s="28" t="s">
+      <c r="R15" s="40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
@@ -2490,18 +2526,18 @@
       <c r="N16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="37" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="19"/>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="41" t="s">
         <v>26</v>
       </c>
       <c r="R16" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
@@ -2530,7 +2566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
@@ -2557,7 +2593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
@@ -2582,7 +2618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>15</v>
       </c>

--- a/tsp变量.xlsx
+++ b/tsp变量.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\chuukann\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\chuukann\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D6E2C5-20F9-40E1-88D9-994DB4604166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FFC73D-B7CB-453E-9DF9-A6857F0FDDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -979,17 +979,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="18" width="5.625" customWidth="1"/>
+    <col min="2" max="18" width="5.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="12" t="s">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="R4" s="28"/>
     </row>
-    <row r="5" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="R6" s="28"/>
     </row>
-    <row r="7" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="R8" s="28"/>
     </row>
-    <row r="9" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="R10" s="28"/>
     </row>
-    <row r="11" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="R12" s="28"/>
     </row>
-    <row r="13" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="Q15" s="20"/>
       <c r="R15" s="28"/>
     </row>
-    <row r="16" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="Q16" s="20"/>
       <c r="R16" s="28"/>
     </row>
-    <row r="17" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="28"/>
     </row>
-    <row r="18" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1475,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="12" scale="130" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1487,13 +1487,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="18" width="5.625" customWidth="1"/>
+    <col min="2" max="18" width="5.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="12" t="s">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="Q4" s="26"/>
       <c r="R4" s="27"/>
     </row>
-    <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="28"/>
     </row>
-    <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="R6" s="28"/>
     </row>
-    <row r="7" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="28"/>
     </row>
-    <row r="9" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="Q9" s="20"/>
       <c r="R9" s="28"/>
     </row>
-    <row r="10" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="R10" s="28"/>
     </row>
-    <row r="11" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1823,7 +1823,7 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="28"/>
     </row>
-    <row r="13" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="Q13" s="20"/>
       <c r="R13" s="28"/>
     </row>
-    <row r="14" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
@@ -2019,17 +2019,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFCC08B-3655-4170-AB74-6C18253916F3}">
   <dimension ref="B3:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="18" width="5.625" customWidth="1"/>
+    <col min="2" max="18" width="5.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="12" t="s">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="R6" s="28"/>
     </row>
-    <row r="7" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="R10" s="28"/>
       <c r="U10" s="42"/>
     </row>
-    <row r="11" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>15</v>
       </c>

--- a/tsp变量.xlsx
+++ b/tsp变量.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\chuukann\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FFC73D-B7CB-453E-9DF9-A6857F0FDDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52226AAA-712C-480C-92E8-1A5E9AC5AC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="32">
   <si>
     <t>x1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -573,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -697,6 +708,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -979,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -2017,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFCC08B-3655-4170-AB74-6C18253916F3}">
-  <dimension ref="B3:U20"/>
+  <dimension ref="B3:U43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2641,6 +2724,618 @@
         <v>31</v>
       </c>
     </row>
+    <row r="26" spans="2:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="43"/>
+      <c r="C27" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="48"/>
+      <c r="J28" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="40"/>
+    </row>
+    <row r="30" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="52"/>
+      <c r="I31" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q33" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="40"/>
+    </row>
+    <row r="34" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="R34" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" s="40"/>
+    </row>
+    <row r="38" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q38" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="R38" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="R40" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="65" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tsp变量.xlsx
+++ b/tsp变量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\chuukann\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\chuukann\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52226AAA-712C-480C-92E8-1A5E9AC5AC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62848D9-E67C-4F95-9A72-DD223F3BA14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="32">
   <si>
     <t>x1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -778,6 +778,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,17 +1101,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="18" width="5.58203125" customWidth="1"/>
+    <col min="2" max="18" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="12" t="s">
         <v>0</v>
@@ -1123,7 +1162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1228,7 @@
       </c>
       <c r="R4" s="28"/>
     </row>
-    <row r="5" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1222,7 +1261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1255,7 +1294,7 @@
       </c>
       <c r="R6" s="28"/>
     </row>
-    <row r="7" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1284,7 +1323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1313,7 +1352,7 @@
       </c>
       <c r="R8" s="28"/>
     </row>
-    <row r="9" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1371,7 +1410,7 @@
       </c>
       <c r="R10" s="28"/>
     </row>
-    <row r="11" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1396,7 +1435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1421,7 +1460,7 @@
       </c>
       <c r="R12" s="28"/>
     </row>
-    <row r="13" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1446,7 +1485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -1471,7 +1510,7 @@
       </c>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1492,7 +1531,7 @@
       <c r="Q15" s="20"/>
       <c r="R15" s="28"/>
     </row>
-    <row r="16" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
@@ -1513,7 +1552,7 @@
       <c r="Q16" s="20"/>
       <c r="R16" s="28"/>
     </row>
-    <row r="17" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
@@ -1534,7 +1573,7 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="28"/>
     </row>
-    <row r="18" spans="2:18" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
@@ -1566,17 +1605,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D6F863-3FEC-41DA-AEDC-2943EE56EB47}">
   <dimension ref="B2:R19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="18" width="5.58203125" customWidth="1"/>
+    <col min="2" max="18" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="12" t="s">
         <v>0</v>
@@ -1627,7 +1666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1701,7 @@
       <c r="Q4" s="26"/>
       <c r="R4" s="27"/>
     </row>
-    <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1695,7 +1734,7 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="28"/>
     </row>
-    <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1726,7 +1765,7 @@
       </c>
       <c r="R6" s="28"/>
     </row>
-    <row r="7" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1788,7 +1827,7 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="28"/>
     </row>
-    <row r="9" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -1819,7 +1858,7 @@
       <c r="Q9" s="20"/>
       <c r="R9" s="28"/>
     </row>
-    <row r="10" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
@@ -1848,7 +1887,7 @@
       </c>
       <c r="R10" s="28"/>
     </row>
-    <row r="11" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1875,7 +1914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1906,7 +1945,7 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="28"/>
     </row>
-    <row r="13" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1935,7 +1974,7 @@
       <c r="Q13" s="20"/>
       <c r="R13" s="28"/>
     </row>
-    <row r="14" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +2001,7 @@
       </c>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
@@ -1987,7 +2026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
@@ -2016,7 +2055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
@@ -2043,7 +2082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
@@ -2068,7 +2107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
@@ -2100,19 +2139,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFCC08B-3655-4170-AB74-6C18253916F3}">
-  <dimension ref="B3:U43"/>
+  <dimension ref="B3:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="18" width="5.58203125" customWidth="1"/>
+    <col min="2" max="18" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="12" t="s">
         <v>0</v>
@@ -2163,7 +2202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2294,7 @@
       </c>
       <c r="R6" s="28"/>
     </row>
-    <row r="7" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -2298,7 +2337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2339,7 +2378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2380,7 +2419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2420,7 +2459,7 @@
       <c r="R10" s="28"/>
       <c r="U10" s="42"/>
     </row>
-    <row r="11" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2457,7 +2496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
@@ -2492,7 +2531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
@@ -2527,7 +2566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
@@ -2560,7 +2599,7 @@
       </c>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
@@ -2591,7 +2630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
@@ -2620,7 +2659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
@@ -2649,7 +2688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
@@ -2676,7 +2715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
@@ -2701,7 +2740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>15</v>
       </c>
@@ -2724,8 +2763,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
       <c r="C27" s="44" t="s">
         <v>0</v>
@@ -2776,7 +2815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="47" t="s">
         <v>0</v>
       </c>
@@ -2823,7 +2862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="49" t="s">
         <v>1</v>
       </c>
@@ -2868,7 +2907,7 @@
       </c>
       <c r="R29" s="40"/>
     </row>
-    <row r="30" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="49" t="s">
         <v>2</v>
       </c>
@@ -2911,7 +2950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="s">
         <v>3</v>
       </c>
@@ -2952,7 +2991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="55" t="s">
         <v>4</v>
       </c>
@@ -2993,7 +3032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="56" t="s">
         <v>5</v>
       </c>
@@ -3032,7 +3071,7 @@
       </c>
       <c r="R33" s="40"/>
     </row>
-    <row r="34" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="56" t="s">
         <v>6</v>
       </c>
@@ -3069,7 +3108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="57" t="s">
         <v>7</v>
       </c>
@@ -3104,7 +3143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="47" t="s">
         <v>8</v>
       </c>
@@ -3139,7 +3178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="49" t="s">
         <v>9</v>
       </c>
@@ -3172,7 +3211,7 @@
       </c>
       <c r="R37" s="40"/>
     </row>
-    <row r="38" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="49" t="s">
         <v>10</v>
       </c>
@@ -3203,7 +3242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="53" t="s">
         <v>11</v>
       </c>
@@ -3232,7 +3271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="47" t="s">
         <v>12</v>
       </c>
@@ -3261,7 +3300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="49" t="s">
         <v>13</v>
       </c>
@@ -3288,7 +3327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="49" t="s">
         <v>14</v>
       </c>
@@ -3313,7 +3352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="53" t="s">
         <v>15</v>
       </c>
@@ -3336,6 +3375,618 @@
         <v>31</v>
       </c>
     </row>
+    <row r="45" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="43"/>
+      <c r="C46" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="O46" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q46" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="R46" s="46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="O47" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="50"/>
+      <c r="D48" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q48" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="72"/>
+    </row>
+    <row r="49" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="R49" s="72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="50"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="50"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="74"/>
+      <c r="R51" s="72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="P52" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q52" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" s="72"/>
+    </row>
+    <row r="53" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="50"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="N53" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="R53" s="72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="50"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="R54" s="72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="50"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="N55" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="O55" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="P55" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="50"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="M56" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="N56" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="O56" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="P56" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q56" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="R56" s="72"/>
+    </row>
+    <row r="57" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="50"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q57" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="R57" s="72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="50"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="O58" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="R58" s="72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="50"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="P59" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q59" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="R59" s="72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="50"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q60" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="R60" s="72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="50"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="R61" s="72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="60"/>
+      <c r="O62" s="60"/>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="79" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
